--- a/biology/Botanique/Medusandra/Medusandra.xlsx
+++ b/biology/Botanique/Medusandra/Medusandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medusandra est un genre de plantes dicotylédones de la famille des Peridiscaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1952 par le botaniste britannique John Patrick Micklethwait Brenan avec pour espèce type Medusandra richardsiana Brenan[2].
-En classification classique de Cronquist (1981)[3] Medusandra est assigné à la famille monotypique des Medusandraceae.
-En classification phylogénétique APG (1998)[4] sa classification est incertaine. Puis, en classification phylogénétique APG II (2003)[5] et classification phylogénétique APG III (2009)[6], le genre est assigné à la famille des Peridiscaceae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1952 par le botaniste britannique John Patrick Micklethwait Brenan avec pour espèce type Medusandra richardsiana Brenan.
+En classification classique de Cronquist (1981) Medusandra est assigné à la famille monotypique des Medusandraceae.
+En classification phylogénétique APG (1998) sa classification est incertaine. Puis, en classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009), le genre est assigné à la famille des Peridiscaceae.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 juillet 2017)[7], The Plant List            (27 juillet 2017)[8] et Tropicos                                           (27 juillet 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 juillet 2017), The Plant List            (27 juillet 2017) et Tropicos                                           (27 juillet 2017) :
 Medusandra mpomiana Letouzey &amp; Satabie
 Medusandra richardsiana Brenan
-Selon NCBI  (27 juillet 2017)[9] :
+Selon NCBI  (27 juillet 2017) :
 Medusandra richardsiana</t>
         </is>
       </c>
